--- a/biology/Zoologie/Aigrette_roussâtre/Aigrette_roussâtre.xlsx
+++ b/biology/Zoologie/Aigrette_roussâtre/Aigrette_roussâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aigrette_rouss%C3%A2tre</t>
+          <t>Aigrette_roussâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Egretta rufescens
 L'Aigrette roussâtre (Egretta rufescens) est une espèce d'oiseaux de la famille des Ardeidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aigrette_rouss%C3%A2tre</t>
+          <t>Aigrette_roussâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Aigrette roussâtre mesure 66 à 81 cm pour une masse d'environ 450 g[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Aigrette roussâtre mesure 66 à 81 cm pour une masse d'environ 450 g.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aigrette_rouss%C3%A2tre</t>
+          <t>Aigrette_roussâtre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau fréquente le pourtour de Cuba, du Yucatán, de la Floride et du Golfe du Mexique.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aigrette_rouss%C3%A2tre</t>
+          <t>Aigrette_roussâtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se nourrit surtout de petits poissons mais aussi de grenouilles, de têtards, de crustacés et d'insectes[1].
-Pour traquer ses proies, l'aigrette marche lentement puis, lorsqu'elle trouve par exemple un banc de poissons, elle les poursuit en courant de tous côtés en battant des ailes. Elle étend parfois ses ailes comme une ombrelle autour de ses pieds et de sa tête. Cette technique lui permet de diminuer les reflets du soleil, et également de figer les poissons à ses pieds qui se croient alors à l'abri[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se nourrit surtout de petits poissons mais aussi de grenouilles, de têtards, de crustacés et d'insectes.
+Pour traquer ses proies, l'aigrette marche lentement puis, lorsqu'elle trouve par exemple un banc de poissons, elle les poursuit en courant de tous côtés en battant des ailes. Elle étend parfois ses ailes comme une ombrelle autour de ses pieds et de sa tête. Cette technique lui permet de diminuer les reflets du soleil, et également de figer les poissons à ses pieds qui se croient alors à l'abri.
 </t>
         </is>
       </c>
